--- a/biology/Botanique/André_Assailly/André_Assailly.xlsx
+++ b/biology/Botanique/André_Assailly/André_Assailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Assailly</t>
+          <t>André_Assailly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Assailly est un auteur, scientifique et botaniste français né le 15 novembre 1904 à Cholet et mort le 30 mars 1997 à Pamiers[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Assailly est un auteur, scientifique et botaniste français né le 15 novembre 1904 à Cholet et mort le 30 mars 1997 à Pamiers.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Assailly</t>
+          <t>André_Assailly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né en 1904 à Cholet[2], André Assailly reste connu pour son œuvre Les Poussières, dont la première édition est parue en 1956 dans la collection Que sais-je ?.
-Il a été membre de la Société botanique de France de 1954 à 1997[3].
-Il a écrit d'autres ouvrages, comme Mon Toubib raconte en 1954 et L'Anatomie végétale et ses applications techniques en 1953[4].
-Il décède à Pamiers en 1997[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né en 1904 à Cholet, André Assailly reste connu pour son œuvre Les Poussières, dont la première édition est parue en 1956 dans la collection Que sais-je ?.
+Il a été membre de la Société botanique de France de 1954 à 1997.
+Il a écrit d'autres ouvrages, comme Mon Toubib raconte en 1954 et L'Anatomie végétale et ses applications techniques en 1953.
+Il décède à Pamiers en 1997.
 </t>
         </is>
       </c>
